--- a/artfynd/A 3894-2026 artfynd.xlsx
+++ b/artfynd/A 3894-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,3570 @@
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>131327979</v>
+      </c>
+      <c r="B3" t="n">
+        <v>79245</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>503460</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7021909</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131327975</v>
+      </c>
+      <c r="B4" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>503459</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7021911</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>131327952</v>
+      </c>
+      <c r="B5" t="n">
+        <v>83225</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6440</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vitgrynig nållav</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Chaenotheca subroscida</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Eitner) Zahlbr.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>503498</v>
+      </c>
+      <c r="R5" t="n">
+        <v>7021967</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>131327967</v>
+      </c>
+      <c r="B6" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>503419</v>
+      </c>
+      <c r="R6" t="n">
+        <v>7021902</v>
+      </c>
+      <c r="S6" t="n">
+        <v>10</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
+      <c r="AD6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131327953</v>
+      </c>
+      <c r="B7" t="n">
+        <v>92535</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>503716</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7021947</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131327977</v>
+      </c>
+      <c r="B8" t="n">
+        <v>91833</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>503783</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7021934</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131327955</v>
+      </c>
+      <c r="B9" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>503765</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7021922</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131327964</v>
+      </c>
+      <c r="B10" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>503463</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7021900</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131327974</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>503445</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7021903</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131327968</v>
+      </c>
+      <c r="B12" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>503422</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7021909</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131327971</v>
+      </c>
+      <c r="B13" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>503437</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7021905</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131327959</v>
+      </c>
+      <c r="B14" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>503527</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7021942</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131327969</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>503429</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7021902</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131327957</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>503562</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7021924</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131327970</v>
+      </c>
+      <c r="B17" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>503445</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7021905</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131327954</v>
+      </c>
+      <c r="B18" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>503769</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7021932</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131327972</v>
+      </c>
+      <c r="B19" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>503450</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7021902</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131327965</v>
+      </c>
+      <c r="B20" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>503454</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7021902</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131327961</v>
+      </c>
+      <c r="B21" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>503469</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7021944</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131327966</v>
+      </c>
+      <c r="B22" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>503457</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7021904</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131327973</v>
+      </c>
+      <c r="B23" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>503440</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7021904</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131327962</v>
+      </c>
+      <c r="B24" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>503472</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7021909</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på tall.</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131327978</v>
+      </c>
+      <c r="B25" t="n">
+        <v>79245</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>503499</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7021949</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>131327960</v>
+      </c>
+      <c r="B26" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>503508</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7021956</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>131327963</v>
+      </c>
+      <c r="B27" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>503470</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7021909</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>131327956</v>
+      </c>
+      <c r="B28" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>503578</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7021915</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>131327958</v>
+      </c>
+      <c r="B29" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>503543</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7021931</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>131327976</v>
+      </c>
+      <c r="B30" t="n">
+        <v>80350</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Eliasbodarna Väst, Jmt</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>503581</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7021963</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2026-01-25</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Kristian Zackrisson</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 3894-2026 artfynd.xlsx
+++ b/artfynd/A 3894-2026 artfynd.xlsx
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131327979</v>
+        <v>131327975</v>
       </c>
       <c r="B3" t="n">
-        <v>79245</v>
+        <v>58043</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -793,37 +793,50 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Eliasbodarna Väst, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>503460</v>
+        <v>503459</v>
       </c>
       <c r="R3" t="n">
-        <v>7021909</v>
+        <v>7021911</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -864,28 +877,12 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -903,10 +900,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131327975</v>
+        <v>131327979</v>
       </c>
       <c r="B4" t="n">
-        <v>58043</v>
+        <v>79245</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -914,50 +911,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Eliasbodarna Väst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>503459</v>
+        <v>503460</v>
       </c>
       <c r="R4" t="n">
-        <v>7021911</v>
+        <v>7021909</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -998,12 +982,28 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131327952</v>
+        <v>131327967</v>
       </c>
       <c r="B5" t="n">
-        <v>83225</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1032,26 +1032,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6440</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1059,10 +1064,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>503498</v>
+        <v>503419</v>
       </c>
       <c r="R5" t="n">
-        <v>7021967</v>
+        <v>7021902</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1097,19 +1102,23 @@
           <t>2026-01-25</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, på gran.</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1142,10 +1151,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131327967</v>
+        <v>131327952</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>83225</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1153,31 +1162,26 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6440</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
@@ -1185,10 +1189,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>503419</v>
+        <v>503498</v>
       </c>
       <c r="R6" t="n">
-        <v>7021902</v>
+        <v>7021967</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1223,23 +1227,19 @@
           <t>2026-01-25</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, på gran.</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1644,7 +1644,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131327964</v>
+        <v>131327974</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1677,7 +1677,7 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N10" t="inlineStr"/>
@@ -1687,10 +1687,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>503463</v>
+        <v>503445</v>
       </c>
       <c r="R10" t="n">
-        <v>7021900</v>
+        <v>7021903</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1774,7 +1774,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131327974</v>
+        <v>131327964</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1807,7 +1807,7 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N11" t="inlineStr"/>
@@ -1817,10 +1817,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>503445</v>
+        <v>503463</v>
       </c>
       <c r="R11" t="n">
-        <v>7021903</v>
+        <v>7021900</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -2164,7 +2164,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131327959</v>
+        <v>131327969</v>
       </c>
       <c r="B14" t="n">
         <v>57884</v>
@@ -2207,10 +2207,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>503527</v>
+        <v>503429</v>
       </c>
       <c r="R14" t="n">
-        <v>7021942</v>
+        <v>7021902</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131327969</v>
+        <v>131327959</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2337,10 +2337,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>503429</v>
+        <v>503527</v>
       </c>
       <c r="R15" t="n">
-        <v>7021902</v>
+        <v>7021942</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2424,7 +2424,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131327957</v>
+        <v>131327970</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2457,7 +2457,7 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2467,10 +2467,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>503562</v>
+        <v>503445</v>
       </c>
       <c r="R16" t="n">
-        <v>7021924</v>
+        <v>7021905</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2554,7 +2554,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131327970</v>
+        <v>131327957</v>
       </c>
       <c r="B17" t="n">
         <v>57884</v>
@@ -2587,7 +2587,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -2597,10 +2597,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>503445</v>
+        <v>503562</v>
       </c>
       <c r="R17" t="n">
-        <v>7021905</v>
+        <v>7021924</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2637,7 +2637,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -3720,7 +3720,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131327960</v>
+        <v>131327956</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3753,7 +3753,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -3763,10 +3763,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>503508</v>
+        <v>503578</v>
       </c>
       <c r="R26" t="n">
-        <v>7021956</v>
+        <v>7021915</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3803,7 +3803,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3980,7 +3980,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131327956</v>
+        <v>131327960</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -4013,7 +4013,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -4023,10 +4023,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>503578</v>
+        <v>503508</v>
       </c>
       <c r="R28" t="n">
-        <v>7021915</v>
+        <v>7021956</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -4110,10 +4110,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131327958</v>
+        <v>131327976</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4121,31 +4121,26 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -4153,10 +4148,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>503543</v>
+        <v>503581</v>
       </c>
       <c r="R29" t="n">
-        <v>7021931</v>
+        <v>7021963</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4191,38 +4186,19 @@
           <t>2026-01-25</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD29" t="b">
         <v>0</v>
       </c>
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4240,10 +4216,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131327976</v>
+        <v>131327958</v>
       </c>
       <c r="B30" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4251,26 +4227,31 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4278,10 +4259,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>503581</v>
+        <v>503543</v>
       </c>
       <c r="R30" t="n">
-        <v>7021963</v>
+        <v>7021931</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4316,19 +4297,38 @@
           <t>2026-01-25</t>
         </is>
       </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD30" t="b">
         <v>0</v>
       </c>
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
